--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1090670.029884496</v>
+        <v>-1092557.611400898</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>206.3663739647381</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>31.60187511706035</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>34.05110737787351</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>49.38957925603669</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>283.9074293196525</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.126445204597186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>6.652197874655252</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>344.6634877382799</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>96.95377689311829</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>84.4526210585757</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>92.81262041878047</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>216.6003366839479</v>
       </c>
     </row>
     <row r="14">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>76.51130099392611</v>
+        <v>73.77914764958852</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>106.2501394820164</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>11.21728996105901</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>127.1119195785039</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>147.2810222559805</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>129.715219710513</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.2508520751891</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>221.9323490168575</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>12.25082275066654</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>78.67531269947844</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.84008750083413</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692892</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689359</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1515.02307474038</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C2" t="n">
-        <v>1146.060557799969</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>787.7948591932184</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2433.669518756051</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2102.60663141248</v>
       </c>
       <c r="W2" t="n">
-        <v>2665.228005041394</v>
+        <v>1749.837976142366</v>
       </c>
       <c r="X2" t="n">
-        <v>2291.762246780314</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="Y2" t="n">
-        <v>1901.622914804502</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>2193.687057490953</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>2193.687057490953</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>2193.687057490953</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>2193.687057490953</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>2193.687057490953</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>2193.687057490953</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>2193.687057490953</v>
       </c>
       <c r="W4" t="n">
-        <v>450.9323329800494</v>
+        <v>2193.687057490953</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>2193.687057490953</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>2193.687057490953</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1464.687040303176</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1464.687040303176</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1464.687040303176</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1078.898787704931</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>667.9128829153237</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.955293888756</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1851.286880367297</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791649</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791649</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>507.1211692320162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1490.978909181595</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.016392241183</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1122.016392241183</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>736.2281396429387</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>729.2826388937352</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157406</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1490.978909181595</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.020265289186</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.020265289186</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822458</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0324822735073</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0324822735073</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0324822735073</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170374</v>
+        <v>792.4568162435038</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735073</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>321.3911813763034</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="C16" t="n">
-        <v>321.3911813763034</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="D16" t="n">
-        <v>321.3911813763034</v>
+        <v>431.1891679859724</v>
       </c>
       <c r="E16" t="n">
-        <v>321.3911813763034</v>
+        <v>283.2760744035793</v>
       </c>
       <c r="F16" t="n">
-        <v>174.501233878393</v>
+        <v>283.2760744035793</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045608</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X16" t="n">
-        <v>503.0396462065431</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="Y16" t="n">
-        <v>503.0396462065431</v>
+        <v>581.3058073983082</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>352.4535582568372</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C19" t="n">
-        <v>352.4535582568372</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D19" t="n">
-        <v>352.4535582568373</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E19" t="n">
-        <v>204.5404646744441</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1263.800259427147</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>1263.800259427147</v>
       </c>
       <c r="W19" t="n">
-        <v>754.894602230607</v>
+        <v>974.3830893901859</v>
       </c>
       <c r="X19" t="n">
-        <v>754.894602230607</v>
+        <v>746.3935384921685</v>
       </c>
       <c r="Y19" t="n">
-        <v>534.1020230870769</v>
+        <v>525.6009593486384</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>484.0375086983739</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>484.0375086983739</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
         <v>208.7516828383384</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909233</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>726.1584037733164</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W22" t="n">
-        <v>436.7412337363558</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X22" t="n">
-        <v>208.7516828383384</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.7516828383384</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>566.6879222525852</v>
+        <v>376.1556594977426</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7517393246783</v>
+        <v>376.1556594977426</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1300.68308664357</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1076.897671433076</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1076.897671433076</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1076.897671433076</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W25" t="n">
-        <v>787.4805013961153</v>
+        <v>785.7936752259997</v>
       </c>
       <c r="X25" t="n">
-        <v>787.4805013961153</v>
+        <v>557.8041243279823</v>
       </c>
       <c r="Y25" t="n">
-        <v>566.6879222525852</v>
+        <v>557.8041243279823</v>
       </c>
     </row>
     <row r="26">
@@ -6212,46 +6212,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>973.0255547109415</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>804.0893717830346</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>653.9727323706988</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883057</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119728</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W28" t="n">
-        <v>1387.841167119728</v>
+        <v>506.855107188543</v>
       </c>
       <c r="X28" t="n">
-        <v>1375.466598684711</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>1154.674019541181</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619129</v>
@@ -6482,13 +6482,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541573</v>
+        <v>439.5324299542181</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076212</v>
+        <v>439.5324299542181</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766563</v>
+        <v>439.5324299542181</v>
       </c>
       <c r="E31" t="n">
-        <v>300.760630075634</v>
+        <v>439.5324299542181</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590944</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386972</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220507</v>
+        <v>730.4517433652463</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030262</v>
+        <v>565.420029503087</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6859,10 +6859,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,16 +6938,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,16 +7248,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083194</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859415</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7649,46 +7649,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,16 +7804,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7831,7 +7831,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142007</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>76.43196988338542</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>53.6213422277887</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.984316668146832</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>89.98226746945147</v>
+        <v>92.71442081378906</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>39.17090854091485</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>275.0200624375183</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>21.5035534397084</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>104.8566210678475</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>18.90025330769933</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>1.669957908414129</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>64.30500338171986</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4588326383706</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>11.54247869489575</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.5413092227035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>8.15987277746899e-13</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>164208.3539728565</v>
+      </c>
+      <c r="C2" t="n">
         <v>164208.3539728566</v>
       </c>
-      <c r="C2" t="n">
-        <v>164208.3539728567</v>
-      </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="F2" t="n">
         <v>156411.6238950835</v>
@@ -26329,7 +26329,7 @@
         <v>156411.6238950835</v>
       </c>
       <c r="H2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950836</v>
       </c>
       <c r="I2" t="n">
         <v>156411.6238950835</v>
@@ -26338,22 +26338,22 @@
         <v>156411.6238950835</v>
       </c>
       <c r="K2" t="n">
-        <v>162728.8549381079</v>
+        <v>162728.8549381078</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728565</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26436,28 +26436,28 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="J4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819121</v>
       </c>
     </row>
     <row r="5">
@@ -26470,43 +26470,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-674251.4710916216</v>
+        <v>-674251.4710916219</v>
       </c>
       <c r="C6" t="n">
-        <v>-84283.59187707715</v>
+        <v>-84283.59187707724</v>
       </c>
       <c r="D6" t="n">
-        <v>-84283.59187707721</v>
+        <v>-84283.59187707727</v>
       </c>
       <c r="E6" t="n">
-        <v>-482910.3461174</v>
+        <v>-483007.805243372</v>
       </c>
       <c r="F6" t="n">
-        <v>42249.69035949613</v>
+        <v>42152.23123352397</v>
       </c>
       <c r="G6" t="n">
-        <v>42249.69035949615</v>
+        <v>42152.23123352403</v>
       </c>
       <c r="H6" t="n">
-        <v>42249.69035949615</v>
+        <v>42152.23123352403</v>
       </c>
       <c r="I6" t="n">
-        <v>42249.69035949616</v>
+        <v>42152.23123352404</v>
       </c>
       <c r="J6" t="n">
-        <v>-134173.5288330967</v>
+        <v>-134270.9879590691</v>
       </c>
       <c r="K6" t="n">
-        <v>-18401.18899602791</v>
+        <v>-18419.68273396222</v>
       </c>
       <c r="L6" t="n">
-        <v>11556.94652377329</v>
+        <v>11556.94652377332</v>
       </c>
       <c r="M6" t="n">
-        <v>-112901.1619091969</v>
+        <v>-112901.1619091972</v>
       </c>
       <c r="N6" t="n">
-        <v>21899.85332464006</v>
+        <v>21899.85332464012</v>
       </c>
       <c r="O6" t="n">
-        <v>21899.85332464019</v>
+        <v>21899.85332464013</v>
       </c>
       <c r="P6" t="n">
         <v>-22262.75197820555</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26765,13 +26765,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>44.85779354355122</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>317.6390936003527</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.2586948811774</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>237.1334190805543</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>129.8767407011425</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>378.1114934514564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>245.4854454491727</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>56.69292621882474</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>69.12068228251513</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>272.7773237853507</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.04847948014722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>82.79420004005213</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33977,7 +33977,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33986,10 +33986,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535621</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>283.5253848149101</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37795,7 +37795,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
